--- a/ONKUTFEL2/NYERS_2021/data_2021_merged_clean.xlsx
+++ b/ONKUTFEL2/NYERS_2021/data_2021_merged_clean.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Donát\Documents\GitHub\-nkutfel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Donát\Documents\GitHub\-nkutfel\ONKUTFEL2\NYERS_2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFE2D2C6-D2D3-4C19-A876-8DB8645E8107}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B2C3BB5-CFC4-4B22-8A92-6F1E0ADBED58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0748D73F-4FFF-4EE5-AF0F-83F09925A358}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2230" uniqueCount="953">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2452" uniqueCount="954">
   <si>
     <t>Name</t>
   </si>
@@ -2893,6 +2893,9 @@
   </si>
   <si>
     <t>Kognitív pont</t>
+  </si>
+  <si>
+    <t>Jelenléti teszt</t>
   </si>
 </sst>
 </file>
@@ -3296,19 +3299,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1851CE7A-FE44-4B1C-8C67-D957BE878265}">
-  <dimension ref="A1:U222"/>
+  <dimension ref="A1:V222"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="X13" sqref="X13"/>
+      <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="20.42578125" customWidth="1"/>
     <col min="13" max="13" width="20.28515625" customWidth="1"/>
     <col min="15" max="15" width="25.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3372,8 +3376,11 @@
       <c r="U1" s="3" t="s">
         <v>950</v>
       </c>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V1" s="3" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>17</v>
       </c>
@@ -3440,8 +3447,11 @@
         <f>$S2/61</f>
         <v>0.70377049180327866</v>
       </c>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>26</v>
       </c>
@@ -3508,8 +3518,11 @@
         <f t="shared" ref="U3:U66" si="2">$S3/61</f>
         <v>0.62704918032786883</v>
       </c>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>33</v>
       </c>
@@ -3576,8 +3589,11 @@
         <f t="shared" si="2"/>
         <v>0.64065573770491802</v>
       </c>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>38</v>
       </c>
@@ -3644,8 +3660,11 @@
         <f t="shared" si="2"/>
         <v>0.66114754098360651</v>
       </c>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>45</v>
       </c>
@@ -3712,8 +3731,11 @@
         <f t="shared" si="2"/>
         <v>0.65885245901639344</v>
       </c>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>50</v>
       </c>
@@ -3780,8 +3802,11 @@
         <f t="shared" si="2"/>
         <v>0.68573770491803276</v>
       </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>56</v>
       </c>
@@ -3848,8 +3873,11 @@
         <f t="shared" si="2"/>
         <v>0.65295081967213109</v>
       </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>59</v>
       </c>
@@ -3916,8 +3944,11 @@
         <f t="shared" si="2"/>
         <v>0.60655737704918034</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>66</v>
       </c>
@@ -3984,8 +4015,11 @@
         <f t="shared" si="2"/>
         <v>0.55459016393442617</v>
       </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>72</v>
       </c>
@@ -4052,8 +4086,11 @@
         <f t="shared" si="2"/>
         <v>0.56819672131147536</v>
       </c>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>78</v>
       </c>
@@ -4120,8 +4157,11 @@
         <f t="shared" si="2"/>
         <v>0.61065573770491799</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>85</v>
       </c>
@@ -4188,8 +4228,11 @@
         <f t="shared" si="2"/>
         <v>0.57377049180327866</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>89</v>
       </c>
@@ -4256,8 +4299,11 @@
         <f t="shared" si="2"/>
         <v>0.6175409836065574</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V14" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>93</v>
       </c>
@@ -4324,8 +4370,11 @@
         <f t="shared" si="2"/>
         <v>0.53278688524590168</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>99</v>
       </c>
@@ -4392,8 +4441,11 @@
         <f t="shared" si="2"/>
         <v>0.5901639344262295</v>
       </c>
-    </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>104</v>
       </c>
@@ -4460,8 +4512,11 @@
         <f t="shared" si="2"/>
         <v>0.63786885245901637</v>
       </c>
-    </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>110</v>
       </c>
@@ -4528,8 +4583,11 @@
         <f t="shared" si="2"/>
         <v>0.58491803278688526</v>
       </c>
-    </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V18" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>115</v>
       </c>
@@ -4596,8 +4654,11 @@
         <f t="shared" si="2"/>
         <v>0.60540983606557375</v>
       </c>
-    </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V19" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>118</v>
       </c>
@@ -4664,8 +4725,11 @@
         <f t="shared" si="2"/>
         <v>0.61475409836065575</v>
       </c>
-    </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>123</v>
       </c>
@@ -4732,8 +4796,11 @@
         <f t="shared" si="2"/>
         <v>0.58049180327868843</v>
       </c>
-    </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V21" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>128</v>
       </c>
@@ -4800,8 +4867,11 @@
         <f t="shared" si="2"/>
         <v>0.6119672131147541</v>
       </c>
-    </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V22" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>133</v>
       </c>
@@ -4868,8 +4938,11 @@
         <f t="shared" si="2"/>
         <v>0.47836065573770492</v>
       </c>
-    </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V23" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>138</v>
       </c>
@@ -4936,8 +5009,11 @@
         <f t="shared" si="2"/>
         <v>0.54262295081967216</v>
       </c>
-    </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V24" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>142</v>
       </c>
@@ -5004,8 +5080,11 @@
         <f t="shared" si="2"/>
         <v>0.52491803278688531</v>
       </c>
-    </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V25" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>147</v>
       </c>
@@ -5072,8 +5151,11 @@
         <f t="shared" si="2"/>
         <v>0.53721311475409839</v>
       </c>
-    </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V26" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>152</v>
       </c>
@@ -5140,8 +5222,11 @@
         <f t="shared" si="2"/>
         <v>0.5</v>
       </c>
-    </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V27" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>157</v>
       </c>
@@ -5208,8 +5293,11 @@
         <f t="shared" si="2"/>
         <v>0.49081967213114752</v>
       </c>
-    </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V28" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>159</v>
       </c>
@@ -5276,8 +5364,11 @@
         <f t="shared" si="2"/>
         <v>0.52327868852459014</v>
       </c>
-    </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V29" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>165</v>
       </c>
@@ -5344,8 +5435,11 @@
         <f t="shared" si="2"/>
         <v>0.51360655737704919</v>
       </c>
-    </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V30" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>170</v>
       </c>
@@ -5412,8 +5506,11 @@
         <f t="shared" si="2"/>
         <v>0.52868852459016391</v>
       </c>
-    </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V31" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>175</v>
       </c>
@@ -5480,8 +5577,11 @@
         <f t="shared" si="2"/>
         <v>0.50967213114754106</v>
       </c>
-    </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V32" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>179</v>
       </c>
@@ -5548,8 +5648,11 @@
         <f t="shared" si="2"/>
         <v>0.5236065573770492</v>
       </c>
-    </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V33" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>186</v>
       </c>
@@ -5616,8 +5719,11 @@
         <f t="shared" si="2"/>
         <v>0.5180327868852459</v>
       </c>
-    </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V34" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>191</v>
       </c>
@@ -5684,8 +5790,11 @@
         <f t="shared" si="2"/>
         <v>0.51770491803278684</v>
       </c>
-    </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V35" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="36" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>196</v>
       </c>
@@ -5752,8 +5861,11 @@
         <f t="shared" si="2"/>
         <v>0.53131147540983603</v>
       </c>
-    </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V36" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="37" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>199</v>
       </c>
@@ -5820,8 +5932,11 @@
         <f t="shared" si="2"/>
         <v>0.48114754098360657</v>
       </c>
-    </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V37" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="38" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>204</v>
       </c>
@@ -5888,8 +6003,11 @@
         <f t="shared" si="2"/>
         <v>0.47950819672131145</v>
       </c>
-    </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V38" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="39" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>209</v>
       </c>
@@ -5956,8 +6074,11 @@
         <f t="shared" si="2"/>
         <v>0.59278688524590162</v>
       </c>
-    </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V39" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="40" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>213</v>
       </c>
@@ -6024,8 +6145,11 @@
         <f t="shared" si="2"/>
         <v>0.4767213114754098</v>
       </c>
-    </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V40" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="41" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>217</v>
       </c>
@@ -6092,8 +6216,11 @@
         <f t="shared" si="2"/>
         <v>0.53409836065573768</v>
       </c>
-    </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V41" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="42" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>222</v>
       </c>
@@ -6160,8 +6287,11 @@
         <f t="shared" si="2"/>
         <v>0.46852459016393438</v>
       </c>
-    </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V42" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="43" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>225</v>
       </c>
@@ -6228,8 +6358,11 @@
         <f t="shared" si="2"/>
         <v>0.54803278688524593</v>
       </c>
-    </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V43" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="44" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>230</v>
       </c>
@@ -6296,8 +6429,11 @@
         <f t="shared" si="2"/>
         <v>0.55868852459016394</v>
       </c>
-    </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V44" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="45" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>235</v>
       </c>
@@ -6364,8 +6500,11 @@
         <f t="shared" si="2"/>
         <v>0.49049180327868858</v>
       </c>
-    </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V45" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="46" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>239</v>
       </c>
@@ -6432,8 +6571,11 @@
         <f t="shared" si="2"/>
         <v>0.53819672131147533</v>
       </c>
-    </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V46" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="47" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>245</v>
       </c>
@@ -6500,8 +6642,11 @@
         <f t="shared" si="2"/>
         <v>0.55327868852459017</v>
       </c>
-    </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V47" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="48" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>249</v>
       </c>
@@ -6568,8 +6713,11 @@
         <f t="shared" si="2"/>
         <v>0.48770491803278687</v>
       </c>
-    </row>
-    <row r="49" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V48" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="49" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>254</v>
       </c>
@@ -6636,8 +6784,11 @@
         <f t="shared" si="2"/>
         <v>0.56688524590163936</v>
       </c>
-    </row>
-    <row r="50" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V49" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="50" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>259</v>
       </c>
@@ -6704,8 +6855,11 @@
         <f t="shared" si="2"/>
         <v>0.48393442622950827</v>
       </c>
-    </row>
-    <row r="51" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V50" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="51" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>263</v>
       </c>
@@ -6772,8 +6926,11 @@
         <f t="shared" si="2"/>
         <v>0.46344262295081973</v>
       </c>
-    </row>
-    <row r="52" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V51" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="52" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>267</v>
       </c>
@@ -6840,8 +6997,11 @@
         <f t="shared" si="2"/>
         <v>0.51229508196721307</v>
       </c>
-    </row>
-    <row r="53" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V52" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="53" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>269</v>
       </c>
@@ -6908,8 +7068,11 @@
         <f t="shared" si="2"/>
         <v>0.51098360655737707</v>
       </c>
-    </row>
-    <row r="54" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V53" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="54" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>274</v>
       </c>
@@ -6976,8 +7139,11 @@
         <f t="shared" si="2"/>
         <v>0.50819672131147542</v>
       </c>
-    </row>
-    <row r="55" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V54" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="55" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>279</v>
       </c>
@@ -7044,8 +7210,11 @@
         <f t="shared" si="2"/>
         <v>0.50819672131147542</v>
       </c>
-    </row>
-    <row r="56" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V55" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="56" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>282</v>
       </c>
@@ -7112,8 +7281,11 @@
         <f t="shared" si="2"/>
         <v>0.52311475409836061</v>
       </c>
-    </row>
-    <row r="57" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V56" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="57" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>286</v>
       </c>
@@ -7180,8 +7352,11 @@
         <f t="shared" si="2"/>
         <v>0.4344262295081967</v>
       </c>
-    </row>
-    <row r="58" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V57" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="58" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>289</v>
       </c>
@@ -7248,8 +7423,11 @@
         <f t="shared" si="2"/>
         <v>0.44114754098360648</v>
       </c>
-    </row>
-    <row r="59" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V58" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="59" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>294</v>
       </c>
@@ -7316,8 +7494,11 @@
         <f t="shared" si="2"/>
         <v>0.47393442622950815</v>
       </c>
-    </row>
-    <row r="60" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V59" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="60" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>298</v>
       </c>
@@ -7384,8 +7565,11 @@
         <f t="shared" si="2"/>
         <v>0.39475409836065573</v>
       </c>
-    </row>
-    <row r="61" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V60" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="61" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>301</v>
       </c>
@@ -7452,8 +7636,11 @@
         <f t="shared" si="2"/>
         <v>0.49180327868852458</v>
       </c>
-    </row>
-    <row r="62" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V61" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="62" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>305</v>
       </c>
@@ -7520,8 +7707,11 @@
         <f t="shared" si="2"/>
         <v>0.4701639344262295</v>
       </c>
-    </row>
-    <row r="63" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V62" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="63" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>310</v>
       </c>
@@ -7588,8 +7778,11 @@
         <f t="shared" si="2"/>
         <v>0.50262295081967212</v>
       </c>
-    </row>
-    <row r="64" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V63" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="64" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>315</v>
       </c>
@@ -7656,8 +7849,11 @@
         <f t="shared" si="2"/>
         <v>0.40016393442622944</v>
       </c>
-    </row>
-    <row r="65" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V64" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="65" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>318</v>
       </c>
@@ -7724,8 +7920,11 @@
         <f t="shared" si="2"/>
         <v>0.48114754098360657</v>
       </c>
-    </row>
-    <row r="66" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V65" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="66" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>322</v>
       </c>
@@ -7792,8 +7991,11 @@
         <f t="shared" si="2"/>
         <v>0.4455737704918033</v>
       </c>
-    </row>
-    <row r="67" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V66" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="67" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>326</v>
       </c>
@@ -7860,8 +8062,11 @@
         <f t="shared" ref="U67:U130" si="5">$S67/61</f>
         <v>0.44540983606557377</v>
       </c>
-    </row>
-    <row r="68" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V67" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="68" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>331</v>
       </c>
@@ -7928,8 +8133,11 @@
         <f t="shared" si="5"/>
         <v>0.50983606557377048</v>
       </c>
-    </row>
-    <row r="69" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V68" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="69" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>336</v>
       </c>
@@ -7996,8 +8204,11 @@
         <f t="shared" si="5"/>
         <v>0.4070491803278688</v>
       </c>
-    </row>
-    <row r="70" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V69" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="70" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>341</v>
       </c>
@@ -8064,8 +8275,11 @@
         <f t="shared" si="5"/>
         <v>0.45377049180327866</v>
       </c>
-    </row>
-    <row r="71" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V70" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="71" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>346</v>
       </c>
@@ -8132,8 +8346,11 @@
         <f t="shared" si="5"/>
         <v>0.45245901639344266</v>
       </c>
-    </row>
-    <row r="72" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V71" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="72" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>350</v>
       </c>
@@ -8200,8 +8417,11 @@
         <f t="shared" si="5"/>
         <v>0.44950819672131148</v>
       </c>
-    </row>
-    <row r="73" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V72" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="73" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>354</v>
       </c>
@@ -8268,8 +8488,11 @@
         <f t="shared" si="5"/>
         <v>0.42918032786885246</v>
       </c>
-    </row>
-    <row r="74" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V73" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="74" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>360</v>
       </c>
@@ -8336,8 +8559,11 @@
         <f t="shared" si="5"/>
         <v>0.42885245901639341</v>
       </c>
-    </row>
-    <row r="75" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V74" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="75" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>365</v>
       </c>
@@ -8404,8 +8630,11 @@
         <f t="shared" si="5"/>
         <v>0.45918032786885243</v>
       </c>
-    </row>
-    <row r="76" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V75" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="76" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>370</v>
       </c>
@@ -8472,8 +8701,11 @@
         <f t="shared" si="5"/>
         <v>0.45901639344262296</v>
       </c>
-    </row>
-    <row r="77" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V76" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="77" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>374</v>
       </c>
@@ -8540,8 +8772,11 @@
         <f t="shared" si="5"/>
         <v>0.47262295081967209</v>
       </c>
-    </row>
-    <row r="78" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V77" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="78" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>379</v>
       </c>
@@ -8608,8 +8843,11 @@
         <f t="shared" si="5"/>
         <v>0.38655737704918031</v>
       </c>
-    </row>
-    <row r="79" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V78" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="79" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>383</v>
       </c>
@@ -8676,8 +8914,11 @@
         <f t="shared" si="5"/>
         <v>0.38655737704918031</v>
       </c>
-    </row>
-    <row r="80" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V79" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="80" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>388</v>
       </c>
@@ -8744,8 +8985,11 @@
         <f t="shared" si="5"/>
         <v>0.4493442622950819</v>
       </c>
-    </row>
-    <row r="81" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V80" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="81" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>394</v>
       </c>
@@ -8812,8 +9056,11 @@
         <f t="shared" si="5"/>
         <v>0.39655737704918032</v>
       </c>
-    </row>
-    <row r="82" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V81" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="82" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>397</v>
       </c>
@@ -8880,8 +9127,11 @@
         <f t="shared" si="5"/>
         <v>0.49180327868852458</v>
       </c>
-    </row>
-    <row r="83" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V82" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="83" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>401</v>
       </c>
@@ -8948,8 +9198,11 @@
         <f t="shared" si="5"/>
         <v>0.44131147540983612</v>
       </c>
-    </row>
-    <row r="84" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V83" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="84" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>406</v>
       </c>
@@ -9016,8 +9269,11 @@
         <f t="shared" si="5"/>
         <v>0.45229508196721319</v>
       </c>
-    </row>
-    <row r="85" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V84" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="85" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>410</v>
       </c>
@@ -9084,8 +9340,11 @@
         <f t="shared" si="5"/>
         <v>0.4331147540983607</v>
       </c>
-    </row>
-    <row r="86" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V85" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="86" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>413</v>
       </c>
@@ -9152,8 +9411,11 @@
         <f t="shared" si="5"/>
         <v>0.41557377049180333</v>
       </c>
-    </row>
-    <row r="87" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V86" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="87" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>418</v>
       </c>
@@ -9220,8 +9482,11 @@
         <f t="shared" si="5"/>
         <v>0.33049180327868849</v>
       </c>
-    </row>
-    <row r="88" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V87" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="88" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>423</v>
       </c>
@@ -9288,8 +9553,11 @@
         <f t="shared" si="5"/>
         <v>0.37868852459016394</v>
       </c>
-    </row>
-    <row r="89" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V88" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="89" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>427</v>
       </c>
@@ -9356,8 +9624,11 @@
         <f t="shared" si="5"/>
         <v>0.35934426229508198</v>
       </c>
-    </row>
-    <row r="90" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V89" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="90" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>432</v>
       </c>
@@ -9424,8 +9695,11 @@
         <f t="shared" si="5"/>
         <v>0.4344262295081967</v>
       </c>
-    </row>
-    <row r="91" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V90" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="91" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>437</v>
       </c>
@@ -9492,8 +9766,11 @@
         <f t="shared" si="5"/>
         <v>0.36622950819672129</v>
       </c>
-    </row>
-    <row r="92" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V91" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="92" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>440</v>
       </c>
@@ -9560,8 +9837,11 @@
         <f t="shared" si="5"/>
         <v>0.39885245901639343</v>
       </c>
-    </row>
-    <row r="93" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V92" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="93" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>443</v>
       </c>
@@ -9628,8 +9908,11 @@
         <f t="shared" si="5"/>
         <v>0.33229508196721314</v>
       </c>
-    </row>
-    <row r="94" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V93" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="94" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>448</v>
       </c>
@@ -9696,8 +9979,11 @@
         <f t="shared" si="5"/>
         <v>0.44524590163934424</v>
       </c>
-    </row>
-    <row r="95" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V94" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="95" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>452</v>
       </c>
@@ -9764,8 +10050,11 @@
         <f t="shared" si="5"/>
         <v>0.39475409836065573</v>
       </c>
-    </row>
-    <row r="96" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V95" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="96" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>457</v>
       </c>
@@ -9832,8 +10121,11 @@
         <f t="shared" si="5"/>
         <v>0.39344262295081966</v>
       </c>
-    </row>
-    <row r="97" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V96" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="97" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>462</v>
       </c>
@@ -9900,8 +10192,11 @@
         <f t="shared" si="5"/>
         <v>0.40836065573770491</v>
       </c>
-    </row>
-    <row r="98" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V97" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="98" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>467</v>
       </c>
@@ -9968,8 +10263,11 @@
         <f t="shared" si="5"/>
         <v>0.38950819672131148</v>
       </c>
-    </row>
-    <row r="99" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V98" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="99" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>471</v>
       </c>
@@ -10036,8 +10334,11 @@
         <f t="shared" si="5"/>
         <v>0.37049180327868853</v>
       </c>
-    </row>
-    <row r="100" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V99" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="100" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>475</v>
       </c>
@@ -10104,8 +10405,11 @@
         <f t="shared" si="5"/>
         <v>0.3675409836065574</v>
       </c>
-    </row>
-    <row r="101" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V100" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="101" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>479</v>
       </c>
@@ -10172,8 +10476,11 @@
         <f t="shared" si="5"/>
         <v>0.4001639344262295</v>
       </c>
-    </row>
-    <row r="102" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V101" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="102" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>484</v>
       </c>
@@ -10240,8 +10547,11 @@
         <f t="shared" si="5"/>
         <v>0.41409836065573774</v>
       </c>
-    </row>
-    <row r="103" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V102" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="103" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>489</v>
       </c>
@@ -10308,8 +10618,11 @@
         <f t="shared" si="5"/>
         <v>0.41311475409836063</v>
       </c>
-    </row>
-    <row r="104" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V103" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="104" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>493</v>
       </c>
@@ -10376,8 +10689,11 @@
         <f t="shared" si="5"/>
         <v>0.44393442622950818</v>
       </c>
-    </row>
-    <row r="105" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V104" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="105" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>498</v>
       </c>
@@ -10444,8 +10760,11 @@
         <f t="shared" si="5"/>
         <v>0.32836065573770495</v>
       </c>
-    </row>
-    <row r="106" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V105" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="106" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>503</v>
       </c>
@@ -10512,8 +10831,11 @@
         <f t="shared" si="5"/>
         <v>0.4098360655737705</v>
       </c>
-    </row>
-    <row r="107" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V106" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="107" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>507</v>
       </c>
@@ -10580,8 +10902,11 @@
         <f t="shared" si="5"/>
         <v>0.37459016393442623</v>
       </c>
-    </row>
-    <row r="108" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V107" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="108" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>511</v>
       </c>
@@ -10648,8 +10973,11 @@
         <f t="shared" si="5"/>
         <v>0.3401639344262295</v>
       </c>
-    </row>
-    <row r="109" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V108" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="109" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>515</v>
       </c>
@@ -10716,8 +11044,11 @@
         <f t="shared" si="5"/>
         <v>0.40163934426229508</v>
       </c>
-    </row>
-    <row r="110" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V109" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="110" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>520</v>
       </c>
@@ -10784,8 +11115,11 @@
         <f t="shared" si="5"/>
         <v>0.38409836065573771</v>
       </c>
-    </row>
-    <row r="111" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V110" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="111" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>523</v>
       </c>
@@ -10852,8 +11186,11 @@
         <f t="shared" si="5"/>
         <v>0.30081967213114758</v>
       </c>
-    </row>
-    <row r="112" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V111" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="112" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>529</v>
       </c>
@@ -10920,8 +11257,11 @@
         <f t="shared" si="5"/>
         <v>0.39918032786885249</v>
       </c>
-    </row>
-    <row r="113" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V112" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="113" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>533</v>
       </c>
@@ -10988,8 +11328,11 @@
         <f t="shared" si="5"/>
         <v>0.34836065573770492</v>
       </c>
-    </row>
-    <row r="114" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V113" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="114" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>538</v>
       </c>
@@ -11056,8 +11399,11 @@
         <f t="shared" si="5"/>
         <v>0.42754098360655735</v>
       </c>
-    </row>
-    <row r="115" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V114" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="115" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>542</v>
       </c>
@@ -11124,8 +11470,11 @@
         <f t="shared" si="5"/>
         <v>0.37704918032786883</v>
       </c>
-    </row>
-    <row r="116" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V115" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="116" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>546</v>
       </c>
@@ -11192,8 +11541,11 @@
         <f t="shared" si="5"/>
         <v>0.35950819672131146</v>
       </c>
-    </row>
-    <row r="117" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V116" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="117" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>550</v>
       </c>
@@ -11260,8 +11612,11 @@
         <f t="shared" si="5"/>
         <v>0.3824590163934426</v>
       </c>
-    </row>
-    <row r="118" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V117" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="118" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>555</v>
       </c>
@@ -11328,8 +11683,11 @@
         <f t="shared" si="5"/>
         <v>0.35934426229508198</v>
       </c>
-    </row>
-    <row r="119" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V118" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="119" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>557</v>
       </c>
@@ -11396,8 +11754,11 @@
         <f t="shared" si="5"/>
         <v>0.3429508196721312</v>
       </c>
-    </row>
-    <row r="120" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V119" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="120" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>560</v>
       </c>
@@ -11464,8 +11825,11 @@
         <f t="shared" si="5"/>
         <v>0.34278688524590162</v>
       </c>
-    </row>
-    <row r="121" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V120" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="121" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>565</v>
       </c>
@@ -11532,8 +11896,11 @@
         <f t="shared" si="5"/>
         <v>0.42377049180327869</v>
       </c>
-    </row>
-    <row r="122" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V121" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="122" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>569</v>
       </c>
@@ -11600,8 +11967,11 @@
         <f t="shared" si="5"/>
         <v>0.32950819672131149</v>
       </c>
-    </row>
-    <row r="123" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V122" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="123" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>574</v>
       </c>
@@ -11668,8 +12038,11 @@
         <f t="shared" si="5"/>
         <v>0.35672131147540986</v>
       </c>
-    </row>
-    <row r="124" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V123" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="124" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>578</v>
       </c>
@@ -11736,8 +12109,11 @@
         <f t="shared" si="5"/>
         <v>0.31426229508196724</v>
       </c>
-    </row>
-    <row r="125" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V124" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="125" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>582</v>
       </c>
@@ -11804,8 +12180,11 @@
         <f t="shared" si="5"/>
         <v>0.37295081967213117</v>
       </c>
-    </row>
-    <row r="126" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V125" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="126" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>587</v>
       </c>
@@ -11872,8 +12251,11 @@
         <f t="shared" si="5"/>
         <v>0.35131147540983604</v>
       </c>
-    </row>
-    <row r="127" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V126" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="127" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>592</v>
       </c>
@@ -11940,8 +12322,11 @@
         <f t="shared" si="5"/>
         <v>0.29639344262295081</v>
       </c>
-    </row>
-    <row r="128" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V127" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="128" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>596</v>
       </c>
@@ -12008,8 +12393,11 @@
         <f t="shared" si="5"/>
         <v>0.29639344262295081</v>
       </c>
-    </row>
-    <row r="129" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V128" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="129" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>600</v>
       </c>
@@ -12076,8 +12464,11 @@
         <f t="shared" si="5"/>
         <v>0.31163934426229511</v>
       </c>
-    </row>
-    <row r="130" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V129" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="130" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>604</v>
       </c>
@@ -12144,8 +12535,11 @@
         <f t="shared" si="5"/>
         <v>0.23377049180327872</v>
       </c>
-    </row>
-    <row r="131" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V130" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="131" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>609</v>
       </c>
@@ -12212,8 +12606,11 @@
         <f t="shared" ref="U131:U194" si="8">$S131/61</f>
         <v>0.34852459016393444</v>
       </c>
-    </row>
-    <row r="132" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V131" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="132" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>613</v>
       </c>
@@ -12280,8 +12677,11 @@
         <f t="shared" si="8"/>
         <v>0.34704918032786886</v>
       </c>
-    </row>
-    <row r="133" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V132" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="133" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>619</v>
       </c>
@@ -12348,8 +12748,11 @@
         <f t="shared" si="8"/>
         <v>0.2321311475409836</v>
       </c>
-    </row>
-    <row r="134" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V133" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="134" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>624</v>
       </c>
@@ -12416,8 +12819,11 @@
         <f t="shared" si="8"/>
         <v>0.32639344262295084</v>
       </c>
-    </row>
-    <row r="135" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V134" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="135" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>627</v>
       </c>
@@ -12484,8 +12890,11 @@
         <f t="shared" si="8"/>
         <v>0.27311475409836067</v>
       </c>
-    </row>
-    <row r="136" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V135" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="136" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>631</v>
       </c>
@@ -12552,8 +12961,11 @@
         <f t="shared" si="8"/>
         <v>0.31918032786885242</v>
       </c>
-    </row>
-    <row r="137" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V136" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="137" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>635</v>
       </c>
@@ -12620,8 +13032,11 @@
         <f t="shared" si="8"/>
         <v>0.26508196721311478</v>
       </c>
-    </row>
-    <row r="138" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V137" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="138" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>639</v>
       </c>
@@ -12688,8 +13103,11 @@
         <f t="shared" si="8"/>
         <v>0.23770491803278687</v>
       </c>
-    </row>
-    <row r="139" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V138" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="139" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>644</v>
       </c>
@@ -12756,8 +13174,11 @@
         <f t="shared" si="8"/>
         <v>0.25278688524590165</v>
       </c>
-    </row>
-    <row r="140" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V139" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="140" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>647</v>
       </c>
@@ -12824,8 +13245,11 @@
         <f t="shared" si="8"/>
         <v>0.21622950819672132</v>
       </c>
-    </row>
-    <row r="141" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V140" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="141" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>651</v>
       </c>
@@ -12892,8 +13316,11 @@
         <f t="shared" si="8"/>
         <v>0.2321311475409836</v>
       </c>
-    </row>
-    <row r="142" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V141" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="142" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>653</v>
       </c>
@@ -12960,8 +13387,11 @@
         <f t="shared" si="8"/>
         <v>0.19016393442622953</v>
       </c>
-    </row>
-    <row r="143" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V142" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="143" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>656</v>
       </c>
@@ -13028,8 +13458,11 @@
         <f t="shared" si="8"/>
         <v>0.23901639344262293</v>
       </c>
-    </row>
-    <row r="144" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V143" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="144" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>660</v>
       </c>
@@ -13096,8 +13529,11 @@
         <f t="shared" si="8"/>
         <v>0.27475409836065579</v>
       </c>
-    </row>
-    <row r="145" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V144" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="145" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>665</v>
       </c>
@@ -13164,8 +13600,11 @@
         <f t="shared" si="8"/>
         <v>0.23491803278688522</v>
       </c>
-    </row>
-    <row r="146" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V145" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="146" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>669</v>
       </c>
@@ -13232,8 +13671,11 @@
         <f t="shared" si="8"/>
         <v>0.21475409836065576</v>
       </c>
-    </row>
-    <row r="147" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V146" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="147" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>673</v>
       </c>
@@ -13300,8 +13742,11 @@
         <f t="shared" si="8"/>
         <v>0.19967213114754098</v>
       </c>
-    </row>
-    <row r="148" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V147" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="148" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>677</v>
       </c>
@@ -13368,8 +13813,11 @@
         <f t="shared" si="8"/>
         <v>0.26770491803278684</v>
       </c>
-    </row>
-    <row r="149" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V148" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="149" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>682</v>
       </c>
@@ -13436,8 +13884,11 @@
         <f t="shared" si="8"/>
         <v>0.13655737704918031</v>
       </c>
-    </row>
-    <row r="150" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V149" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="150" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>687</v>
       </c>
@@ -13504,8 +13955,11 @@
         <f t="shared" si="8"/>
         <v>0.22672131147540983</v>
       </c>
-    </row>
-    <row r="151" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V150" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="151" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>692</v>
       </c>
@@ -13572,8 +14026,11 @@
         <f t="shared" si="8"/>
         <v>0.10377049180327869</v>
       </c>
-    </row>
-    <row r="152" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V151" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="152" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>696</v>
       </c>
@@ -13640,8 +14097,11 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="153" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="V152" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="153" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
         <v>879</v>
       </c>
@@ -13708,8 +14168,11 @@
         <f t="shared" si="8"/>
         <v>0.68721311475409841</v>
       </c>
-    </row>
-    <row r="154" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="V153" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="154" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
         <v>880</v>
       </c>
@@ -13776,8 +14239,11 @@
         <f t="shared" si="8"/>
         <v>0.70360655737704925</v>
       </c>
-    </row>
-    <row r="155" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="V154" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="155" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
         <v>881</v>
       </c>
@@ -13844,8 +14310,11 @@
         <f t="shared" si="8"/>
         <v>0.66803278688524592</v>
       </c>
-    </row>
-    <row r="156" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="V155" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="156" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
         <v>882</v>
       </c>
@@ -13912,8 +14381,11 @@
         <f t="shared" si="8"/>
         <v>0.59557377049180327</v>
       </c>
-    </row>
-    <row r="157" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="V156" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="157" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
         <v>883</v>
       </c>
@@ -13980,8 +14452,11 @@
         <f t="shared" si="8"/>
         <v>0.58065573770491807</v>
       </c>
-    </row>
-    <row r="158" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="V157" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="158" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
         <v>884</v>
       </c>
@@ -14048,8 +14523,11 @@
         <f t="shared" si="8"/>
         <v>0.56147540983606559</v>
       </c>
-    </row>
-    <row r="159" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="V158" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="159" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
         <v>885</v>
       </c>
@@ -14116,8 +14594,11 @@
         <f t="shared" si="8"/>
         <v>0.56278688524590159</v>
       </c>
-    </row>
-    <row r="160" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="V159" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="160" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
         <v>886</v>
       </c>
@@ -14184,8 +14665,11 @@
         <f t="shared" si="8"/>
         <v>0.56147540983606559</v>
       </c>
-    </row>
-    <row r="161" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="V160" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="161" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
         <v>887</v>
       </c>
@@ -14252,8 +14736,11 @@
         <f t="shared" si="8"/>
         <v>0.59295081967213115</v>
       </c>
-    </row>
-    <row r="162" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="V161" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="162" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
         <v>888</v>
       </c>
@@ -14320,8 +14807,11 @@
         <f t="shared" si="8"/>
         <v>0.57786885245901642</v>
       </c>
-    </row>
-    <row r="163" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="V162" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="163" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
         <v>889</v>
       </c>
@@ -14388,8 +14878,11 @@
         <f t="shared" si="8"/>
         <v>0.57377049180327866</v>
       </c>
-    </row>
-    <row r="164" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="V163" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="164" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
         <v>890</v>
       </c>
@@ -14456,8 +14949,11 @@
         <f t="shared" si="8"/>
         <v>0.55868852459016394</v>
       </c>
-    </row>
-    <row r="165" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="V164" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="165" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A165" s="2" t="s">
         <v>891</v>
       </c>
@@ -14524,8 +15020,11 @@
         <f t="shared" si="8"/>
         <v>0.52327868852459014</v>
       </c>
-    </row>
-    <row r="166" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="V165" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="166" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
         <v>892</v>
       </c>
@@ -14592,8 +15091,11 @@
         <f t="shared" si="8"/>
         <v>0.50409836065573765</v>
       </c>
-    </row>
-    <row r="167" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="V166" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="167" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
         <v>893</v>
       </c>
@@ -14660,8 +15162,11 @@
         <f t="shared" si="8"/>
         <v>0.4809836065573771</v>
       </c>
-    </row>
-    <row r="168" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="V167" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="168" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A168" s="2" t="s">
         <v>894</v>
       </c>
@@ -14728,8 +15233,11 @@
         <f t="shared" si="8"/>
         <v>0.4809836065573771</v>
       </c>
-    </row>
-    <row r="169" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="V168" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="169" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A169" s="2" t="s">
         <v>895</v>
       </c>
@@ -14796,8 +15304,11 @@
         <f t="shared" si="8"/>
         <v>0.49442622950819665</v>
       </c>
-    </row>
-    <row r="170" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="V169" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="170" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="s">
         <v>896</v>
       </c>
@@ -14864,8 +15375,11 @@
         <f t="shared" si="8"/>
         <v>0.57639344262295078</v>
       </c>
-    </row>
-    <row r="171" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="V170" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="171" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A171" s="2" t="s">
         <v>897</v>
       </c>
@@ -14932,8 +15446,11 @@
         <f t="shared" si="8"/>
         <v>0.52180327868852461</v>
       </c>
-    </row>
-    <row r="172" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="V171" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="172" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A172" s="2" t="s">
         <v>898</v>
       </c>
@@ -15000,8 +15517,11 @@
         <f t="shared" si="8"/>
         <v>0.52049180327868849</v>
       </c>
-    </row>
-    <row r="173" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="V172" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="173" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A173" s="2" t="s">
         <v>899</v>
       </c>
@@ -15068,8 +15588,11 @@
         <f t="shared" si="8"/>
         <v>0.49852459016393436</v>
       </c>
-    </row>
-    <row r="174" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="V173" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="174" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A174" s="2" t="s">
         <v>900</v>
       </c>
@@ -15136,8 +15659,11 @@
         <f t="shared" si="8"/>
         <v>0.45786885245901637</v>
       </c>
-    </row>
-    <row r="175" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="V174" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="175" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A175" s="2" t="s">
         <v>901</v>
       </c>
@@ -15204,8 +15730,11 @@
         <f t="shared" si="8"/>
         <v>0.50409836065573765</v>
       </c>
-    </row>
-    <row r="176" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="V175" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="176" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A176" s="2" t="s">
         <v>902</v>
       </c>
@@ -15272,8 +15801,11 @@
         <f t="shared" si="8"/>
         <v>0.51901639344262285</v>
       </c>
-    </row>
-    <row r="177" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="V176" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="177" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A177" s="2" t="s">
         <v>903</v>
       </c>
@@ -15340,8 +15872,11 @@
         <f t="shared" si="8"/>
         <v>0.4344262295081967</v>
       </c>
-    </row>
-    <row r="178" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="V177" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="178" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A178" s="2" t="s">
         <v>904</v>
       </c>
@@ -15408,8 +15943,11 @@
         <f t="shared" si="8"/>
         <v>0.51918032786885249</v>
       </c>
-    </row>
-    <row r="179" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="V178" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="179" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A179" s="2" t="s">
         <v>905</v>
       </c>
@@ -15476,8 +16014,11 @@
         <f t="shared" si="8"/>
         <v>0.42065573770491799</v>
       </c>
-    </row>
-    <row r="180" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="V179" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="180" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A180" s="2" t="s">
         <v>906</v>
       </c>
@@ -15544,8 +16085,11 @@
         <f t="shared" si="8"/>
         <v>0.46606557377049179</v>
       </c>
-    </row>
-    <row r="181" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="V180" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="181" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A181" s="2" t="s">
         <v>907</v>
       </c>
@@ -15612,8 +16156,11 @@
         <f t="shared" si="8"/>
         <v>0.44950819672131148</v>
       </c>
-    </row>
-    <row r="182" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="V181" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="182" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A182" s="2" t="s">
         <v>908</v>
       </c>
@@ -15680,8 +16227,11 @@
         <f t="shared" si="8"/>
         <v>0.44704918032786889</v>
       </c>
-    </row>
-    <row r="183" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="V182" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="183" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A183" s="2" t="s">
         <v>909</v>
       </c>
@@ -15748,8 +16298,11 @@
         <f t="shared" si="8"/>
         <v>0.48377049180327863</v>
       </c>
-    </row>
-    <row r="184" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="V183" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="184" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A184" s="2" t="s">
         <v>910</v>
       </c>
@@ -15816,8 +16369,11 @@
         <f t="shared" si="8"/>
         <v>0.4344262295081967</v>
       </c>
-    </row>
-    <row r="185" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="V184" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="185" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A185" s="2" t="s">
         <v>911</v>
       </c>
@@ -15884,8 +16440,11 @@
         <f t="shared" si="8"/>
         <v>0.4278688524590164</v>
       </c>
-    </row>
-    <row r="186" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="V185" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="186" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A186" s="2" t="s">
         <v>912</v>
       </c>
@@ -15952,8 +16511,11 @@
         <f t="shared" si="8"/>
         <v>0.43852459016393441</v>
       </c>
-    </row>
-    <row r="187" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="V186" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="187" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A187" s="2" t="s">
         <v>913</v>
       </c>
@@ -16020,8 +16582,11 @@
         <f t="shared" si="8"/>
         <v>0.4521311475409836</v>
       </c>
-    </row>
-    <row r="188" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="V187" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="188" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A188" s="2" t="s">
         <v>914</v>
       </c>
@@ -16088,8 +16653,11 @@
         <f t="shared" si="8"/>
         <v>0.41934426229508193</v>
       </c>
-    </row>
-    <row r="189" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="V188" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="189" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A189" s="2" t="s">
         <v>915</v>
       </c>
@@ -16156,8 +16724,11 @@
         <f t="shared" si="8"/>
         <v>0.41803278688524592</v>
       </c>
-    </row>
-    <row r="190" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="V189" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="190" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A190" s="2" t="s">
         <v>916</v>
       </c>
@@ -16224,8 +16795,11 @@
         <f t="shared" si="8"/>
         <v>0.39344262295081966</v>
       </c>
-    </row>
-    <row r="191" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="V190" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="191" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A191" s="2" t="s">
         <v>917</v>
       </c>
@@ -16292,8 +16866,11 @@
         <f t="shared" si="8"/>
         <v>0.44262295081967212</v>
       </c>
-    </row>
-    <row r="192" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="V191" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="192" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A192" s="2" t="s">
         <v>918</v>
       </c>
@@ -16360,8 +16937,11 @@
         <f t="shared" si="8"/>
         <v>0.44163934426229506</v>
       </c>
-    </row>
-    <row r="193" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="V192" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="193" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A193" s="2" t="s">
         <v>919</v>
       </c>
@@ -16428,8 +17008,11 @@
         <f t="shared" si="8"/>
         <v>0.43983606557377047</v>
       </c>
-    </row>
-    <row r="194" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="V193" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="194" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A194" s="2" t="s">
         <v>920</v>
       </c>
@@ -16496,8 +17079,11 @@
         <f t="shared" si="8"/>
         <v>0.41672131147540986</v>
       </c>
-    </row>
-    <row r="195" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="V194" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="195" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A195" s="2" t="s">
         <v>921</v>
       </c>
@@ -16564,8 +17150,11 @@
         <f t="shared" ref="U195:U222" si="11">$S195/61</f>
         <v>0.3824590163934426</v>
       </c>
-    </row>
-    <row r="196" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="V195" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="196" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A196" s="2" t="s">
         <v>922</v>
       </c>
@@ -16632,8 +17221,11 @@
         <f t="shared" si="11"/>
         <v>0.42918032786885246</v>
       </c>
-    </row>
-    <row r="197" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="V196" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="197" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A197" s="2" t="s">
         <v>923</v>
       </c>
@@ -16700,8 +17292,11 @@
         <f t="shared" si="11"/>
         <v>0.42098360655737704</v>
       </c>
-    </row>
-    <row r="198" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="V197" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="198" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A198" s="2" t="s">
         <v>924</v>
       </c>
@@ -16768,8 +17363,11 @@
         <f t="shared" si="11"/>
         <v>0.37163934426229511</v>
       </c>
-    </row>
-    <row r="199" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="V198" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="199" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A199" s="2" t="s">
         <v>925</v>
       </c>
@@ -16836,8 +17434,11 @@
         <f t="shared" si="11"/>
         <v>0.43704918032786877</v>
       </c>
-    </row>
-    <row r="200" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="V199" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="200" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A200" s="2" t="s">
         <v>926</v>
       </c>
@@ -16904,8 +17505,11 @@
         <f t="shared" si="11"/>
         <v>0.47262295081967209</v>
       </c>
-    </row>
-    <row r="201" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="V200" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="201" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A201" s="2" t="s">
         <v>927</v>
       </c>
@@ -16972,8 +17576,11 @@
         <f t="shared" si="11"/>
         <v>0.43049180327868847</v>
       </c>
-    </row>
-    <row r="202" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="V201" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="202" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A202" s="2" t="s">
         <v>928</v>
       </c>
@@ -17040,8 +17647,11 @@
         <f t="shared" si="11"/>
         <v>0.39606557377049173</v>
       </c>
-    </row>
-    <row r="203" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="V202" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="203" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A203" s="2" t="s">
         <v>929</v>
       </c>
@@ -17108,8 +17718,11 @@
         <f t="shared" si="11"/>
         <v>0.37721311475409836</v>
       </c>
-    </row>
-    <row r="204" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="V203" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="204" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A204" s="2" t="s">
         <v>930</v>
       </c>
@@ -17176,8 +17789,11 @@
         <f t="shared" si="11"/>
         <v>0.3034426229508197</v>
       </c>
-    </row>
-    <row r="205" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="V204" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="205" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A205" s="2" t="s">
         <v>931</v>
       </c>
@@ -17244,8 +17860,11 @@
         <f t="shared" si="11"/>
         <v>0.35000000000000003</v>
       </c>
-    </row>
-    <row r="206" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="V205" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="206" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A206" s="2" t="s">
         <v>932</v>
       </c>
@@ -17312,8 +17931,11 @@
         <f t="shared" si="11"/>
         <v>0.45622950819672126</v>
       </c>
-    </row>
-    <row r="207" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="V206" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="207" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A207" s="2" t="s">
         <v>933</v>
       </c>
@@ -17380,8 +18002,11 @@
         <f t="shared" si="11"/>
         <v>0.2922950819672131</v>
       </c>
-    </row>
-    <row r="208" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="V207" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="208" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A208" s="2" t="s">
         <v>934</v>
       </c>
@@ -17448,8 +18073,11 @@
         <f t="shared" si="11"/>
         <v>0.37049180327868853</v>
       </c>
-    </row>
-    <row r="209" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="V208" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="209" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A209" s="2" t="s">
         <v>935</v>
       </c>
@@ -17516,8 +18144,11 @@
         <f t="shared" si="11"/>
         <v>0.36737704918032787</v>
       </c>
-    </row>
-    <row r="210" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="V209" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="210" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A210" s="2" t="s">
         <v>936</v>
       </c>
@@ -17584,8 +18215,11 @@
         <f t="shared" si="11"/>
         <v>0.36606557377049176</v>
       </c>
-    </row>
-    <row r="211" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="V210" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="211" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A211" s="2" t="s">
         <v>937</v>
       </c>
@@ -17652,8 +18286,11 @@
         <f t="shared" si="11"/>
         <v>0.3155737704918033</v>
       </c>
-    </row>
-    <row r="212" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="V211" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="212" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A212" s="2" t="s">
         <v>938</v>
       </c>
@@ -17720,8 +18357,11 @@
         <f t="shared" si="11"/>
         <v>0.36065573770491804</v>
       </c>
-    </row>
-    <row r="213" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="V212" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="213" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A213" s="2" t="s">
         <v>939</v>
       </c>
@@ -17788,8 +18428,11 @@
         <f t="shared" si="11"/>
         <v>0.44114754098360653</v>
       </c>
-    </row>
-    <row r="214" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="V213" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="214" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A214" s="2" t="s">
         <v>940</v>
       </c>
@@ -17856,8 +18499,11 @@
         <f t="shared" si="11"/>
         <v>0.31967213114754101</v>
       </c>
-    </row>
-    <row r="215" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="V214" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="215" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A215" s="2" t="s">
         <v>941</v>
       </c>
@@ -17924,8 +18570,11 @@
         <f t="shared" si="11"/>
         <v>0.37704918032786883</v>
       </c>
-    </row>
-    <row r="216" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="V215" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="216" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A216" s="2" t="s">
         <v>942</v>
       </c>
@@ -17992,8 +18641,11 @@
         <f t="shared" si="11"/>
         <v>0.34426229508196721</v>
       </c>
-    </row>
-    <row r="217" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="V216" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="217" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A217" s="2" t="s">
         <v>943</v>
       </c>
@@ -18060,8 +18712,11 @@
         <f t="shared" si="11"/>
         <v>0.37590163934426229</v>
       </c>
-    </row>
-    <row r="218" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="V217" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="218" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A218" s="2" t="s">
         <v>944</v>
       </c>
@@ -18128,8 +18783,11 @@
         <f t="shared" si="11"/>
         <v>0.38786885245901642</v>
       </c>
-    </row>
-    <row r="219" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="V218" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="219" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A219" s="2" t="s">
         <v>945</v>
       </c>
@@ -18196,8 +18854,11 @@
         <f t="shared" si="11"/>
         <v>0.38688524590163936</v>
       </c>
-    </row>
-    <row r="220" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="V219" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="220" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A220" s="2" t="s">
         <v>946</v>
       </c>
@@ -18264,8 +18925,11 @@
         <f t="shared" si="11"/>
         <v>0.32377049180327871</v>
       </c>
-    </row>
-    <row r="221" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="V220" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="221" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A221" s="2" t="s">
         <v>947</v>
       </c>
@@ -18332,8 +18996,11 @@
         <f t="shared" si="11"/>
         <v>0.24032786885245902</v>
       </c>
-    </row>
-    <row r="222" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="V221" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="222" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A222" s="2" t="s">
         <v>948</v>
       </c>
@@ -18399,6 +19066,9 @@
       <c r="U222" s="4">
         <f t="shared" si="11"/>
         <v>1.6393442622950821E-2</v>
+      </c>
+      <c r="V222" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
